--- a/laba7.xlsx
+++ b/laba7.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="15">
   <si>
     <t>Array</t>
   </si>
@@ -20,25 +20,43 @@
     <t>Sorted_Array</t>
   </si>
   <si>
-    <t>[1, 2, 3, 4, 5]</t>
-  </si>
-  <si>
-    <t>[231, 214, 463, 124, 35]</t>
-  </si>
-  <si>
-    <t>[214, 213435, 321, 121, 4214]</t>
-  </si>
-  <si>
-    <t>[2131, 12134, 2142]</t>
-  </si>
-  <si>
-    <t>[2, 1, 3]</t>
+    <t>[2, 1, 3, 4]</t>
+  </si>
+  <si>
+    <t>[4, 3, 2, 1]</t>
+  </si>
+  <si>
+    <t>[2, 3, 1, 4]</t>
+  </si>
+  <si>
+    <t>[1, 2, 3, 4]</t>
+  </si>
+  <si>
+    <t>[5, 3, 1, 9]</t>
+  </si>
+  <si>
+    <t>[1, 3, 5, 9]</t>
   </si>
   <si>
     <t>[3, 2, 1]</t>
   </si>
   <si>
     <t>[1, 2, 3]</t>
+  </si>
+  <si>
+    <t>[5, 73, 6, 434, 6, 4]</t>
+  </si>
+  <si>
+    <t>[434, 73, 6, 6, 5, 4]</t>
+  </si>
+  <si>
+    <t>[1, 3, 43, 5]</t>
+  </si>
+  <si>
+    <t>[43, 5, 3, 1]</t>
+  </si>
+  <si>
+    <t>[3, 3, 3]</t>
   </si>
 </sst>
 </file>
@@ -112,7 +130,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:B10"/>
+  <dimension ref="A1:B11"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -130,58 +148,78 @@
       <c r="A2" t="s" s="1">
         <v>2</v>
       </c>
-      <c r="B2" s="1"/>
+      <c r="B2" t="s" s="1">
+        <v>3</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="1">
-        <v>3</v>
-      </c>
-      <c r="B3" s="1"/>
+        <v>4</v>
+      </c>
+      <c r="B3" t="s" s="1">
+        <v>5</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="1">
-        <v>4</v>
-      </c>
-      <c r="B4" s="1"/>
+        <v>6</v>
+      </c>
+      <c r="B4" t="s" s="1">
+        <v>7</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="s" s="1">
-        <v>5</v>
-      </c>
-      <c r="B5" s="1"/>
+        <v>8</v>
+      </c>
+      <c r="B5" t="s" s="1">
+        <v>9</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="s" s="1">
-        <v>6</v>
-      </c>
-      <c r="B6" s="1"/>
+        <v>10</v>
+      </c>
+      <c r="B6" t="s" s="1">
+        <v>11</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="s" s="1">
-        <v>6</v>
-      </c>
-      <c r="B7" s="1"/>
+        <v>12</v>
+      </c>
+      <c r="B7" t="s" s="1">
+        <v>13</v>
+      </c>
     </row>
     <row r="8">
-      <c r="A8" s="1"/>
-      <c r="B8" t="s" s="1">
-        <v>7</v>
-      </c>
+      <c r="A8" t="s" s="1">
+        <v>14</v>
+      </c>
+      <c r="B8" s="1"/>
     </row>
     <row r="9">
       <c r="A9" t="s" s="1">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="B9" t="s" s="1">
-        <v>8</v>
+        <v>14</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s" s="1">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="B10" t="s" s="1">
-        <v>7</v>
+        <v>14</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="s" s="1">
+        <v>3</v>
+      </c>
+      <c r="B11" t="s" s="1">
+        <v>3</v>
       </c>
     </row>
   </sheetData>

--- a/laba7.xlsx
+++ b/laba7.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="17">
   <si>
     <t>Array</t>
   </si>
@@ -57,6 +57,12 @@
   </si>
   <si>
     <t>[3, 3, 3]</t>
+  </si>
+  <si>
+    <t>[10, 4, 3, 2, 1]</t>
+  </si>
+  <si>
+    <t>[5, 6]</t>
   </si>
 </sst>
 </file>
@@ -130,7 +136,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:B11"/>
+  <dimension ref="A1:B13"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -222,6 +228,20 @@
         <v>3</v>
       </c>
     </row>
+    <row r="12">
+      <c r="A12" t="s" s="1">
+        <v>15</v>
+      </c>
+      <c r="B12" t="s" s="1">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="s" s="1">
+        <v>16</v>
+      </c>
+      <c r="B13" s="1"/>
+    </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
